--- a/data/mall-cloud-alibaba/content-mbg_structure.xlsx
+++ b/data/mall-cloud-alibaba/content-mbg_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="326">
   <si>
     <t>Class Name</t>
   </si>
@@ -873,51 +873,51 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>addRemarkComments</t>
+  </si>
+  <si>
+    <t>EXAMPLE_SUFFIX</t>
+  </si>
+  <si>
     <t>API_MODEL_PROPERTY_FULL_CLASS_NAME</t>
   </si>
   <si>
-    <t>addRemarkComments</t>
-  </si>
-  <si>
-    <t>EXAMPLE_SUFFIX</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
+    <t>listValue</t>
+  </si>
+  <si>
+    <t>secondValue</t>
+  </si>
+  <si>
+    <t>noValue</t>
+  </si>
+  <si>
     <t>typeHandler</t>
   </si>
   <si>
+    <t>singleValue</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
-    <t>listValue</t>
-  </si>
-  <si>
-    <t>noValue</t>
-  </si>
-  <si>
-    <t>secondValue</t>
-  </si>
-  <si>
-    <t>singleValue</t>
-  </si>
-  <si>
     <t>betweenValue</t>
   </si>
   <si>
     <t>criteria</t>
   </si>
   <si>
+    <t>oredCriteria</t>
+  </si>
+  <si>
+    <t>orderByClause</t>
+  </si>
+  <si>
     <t>distinct</t>
   </si>
   <si>
-    <t>orderByClause</t>
-  </si>
-  <si>
-    <t>oredCriteria</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -978,6 +978,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -988,9 +991,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>5</t>
@@ -8218,7 +8218,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C427"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8240,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>318</v>
@@ -8251,7 +8251,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>319</v>
@@ -8262,7 +8262,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>320</v>
@@ -8273,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>321</v>
@@ -8281,10 +8281,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>322</v>
@@ -8295,10 +8295,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
@@ -8306,10 +8306,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
@@ -8317,10 +8317,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
@@ -8328,10 +8328,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
@@ -8339,10 +8339,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12">
@@ -8350,10 +8350,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13">
@@ -8361,21 +8361,21 @@
         <v>13</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15">
@@ -8383,10 +8383,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
@@ -8394,10 +8394,10 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
@@ -8405,10 +8405,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18">
@@ -8416,10 +8416,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -8427,10 +8427,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20">
@@ -8438,10 +8438,10 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
@@ -8449,10 +8449,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22">
@@ -8460,10 +8460,10 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23">
@@ -8471,10 +8471,10 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24">
@@ -8482,10 +8482,10 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
@@ -8493,10 +8493,10 @@
         <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26">
@@ -8504,10 +8504,10 @@
         <v>44</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27">
@@ -8515,10 +8515,10 @@
         <v>44</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28">
@@ -8526,10 +8526,10 @@
         <v>44</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
@@ -8537,10 +8537,10 @@
         <v>44</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30">
@@ -8548,10 +8548,10 @@
         <v>44</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
@@ -8559,10 +8559,10 @@
         <v>44</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
@@ -8570,10 +8570,10 @@
         <v>44</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33">
@@ -8581,10 +8581,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
@@ -8592,10 +8592,10 @@
         <v>44</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
@@ -8603,10 +8603,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -8614,10 +8614,10 @@
         <v>44</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37">
@@ -8625,10 +8625,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
@@ -8636,10 +8636,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
@@ -8647,10 +8647,10 @@
         <v>44</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
@@ -8658,10 +8658,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41">
@@ -8669,10 +8669,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42">
@@ -8680,10 +8680,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
@@ -8691,10 +8691,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44">
@@ -8702,10 +8702,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
@@ -8713,10 +8713,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
@@ -8724,10 +8724,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
@@ -8735,10 +8735,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48">
@@ -8746,10 +8746,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49">
@@ -8757,10 +8757,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50">
@@ -8768,10 +8768,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
@@ -8779,10 +8779,10 @@
         <v>44</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52">
@@ -8790,10 +8790,10 @@
         <v>44</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53">
@@ -8801,10 +8801,10 @@
         <v>44</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54">
@@ -8812,10 +8812,10 @@
         <v>44</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55">
@@ -8823,10 +8823,10 @@
         <v>44</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56">
@@ -8834,10 +8834,10 @@
         <v>44</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57">
@@ -8845,10 +8845,10 @@
         <v>44</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
@@ -8856,10 +8856,10 @@
         <v>44</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
@@ -8867,10 +8867,10 @@
         <v>44</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
@@ -8878,10 +8878,10 @@
         <v>44</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61">
@@ -8889,10 +8889,10 @@
         <v>44</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62">
@@ -8900,10 +8900,10 @@
         <v>44</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63">
@@ -8911,10 +8911,10 @@
         <v>44</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64">
@@ -8922,10 +8922,10 @@
         <v>44</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65">
@@ -8933,10 +8933,10 @@
         <v>44</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66">
@@ -8944,10 +8944,10 @@
         <v>44</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67">
@@ -8955,10 +8955,10 @@
         <v>44</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68">
@@ -8966,10 +8966,10 @@
         <v>44</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69">
@@ -8977,10 +8977,10 @@
         <v>44</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70">
@@ -8988,10 +8988,10 @@
         <v>44</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71">
@@ -8999,10 +8999,10 @@
         <v>44</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72">
@@ -9010,10 +9010,10 @@
         <v>44</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73">
@@ -9021,10 +9021,10 @@
         <v>44</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74">
@@ -9032,10 +9032,10 @@
         <v>44</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75">
@@ -9043,10 +9043,10 @@
         <v>44</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76">
@@ -9054,10 +9054,10 @@
         <v>44</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77">
@@ -9065,10 +9065,10 @@
         <v>44</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78">
@@ -9076,10 +9076,10 @@
         <v>44</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79">
@@ -9087,10 +9087,10 @@
         <v>44</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80">
@@ -9098,10 +9098,10 @@
         <v>44</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81">
@@ -9109,10 +9109,10 @@
         <v>44</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82">
@@ -9120,10 +9120,10 @@
         <v>44</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83">
@@ -9131,10 +9131,10 @@
         <v>44</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84">
@@ -9142,10 +9142,10 @@
         <v>44</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85">
@@ -9153,10 +9153,10 @@
         <v>44</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86">
@@ -9164,10 +9164,10 @@
         <v>44</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87">
@@ -9175,10 +9175,10 @@
         <v>44</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88">
@@ -9186,10 +9186,10 @@
         <v>44</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89">
@@ -9197,10 +9197,10 @@
         <v>44</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90">
@@ -9208,10 +9208,10 @@
         <v>44</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91">
@@ -9219,10 +9219,10 @@
         <v>44</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92">
@@ -9230,10 +9230,10 @@
         <v>44</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93">
@@ -9241,10 +9241,10 @@
         <v>44</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94">
@@ -9252,10 +9252,10 @@
         <v>44</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95">
@@ -9263,10 +9263,10 @@
         <v>44</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96">
@@ -9274,10 +9274,10 @@
         <v>44</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97">
@@ -9285,10 +9285,10 @@
         <v>44</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98">
@@ -9296,10 +9296,10 @@
         <v>44</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99">
@@ -9307,10 +9307,10 @@
         <v>44</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100">
@@ -9318,10 +9318,10 @@
         <v>44</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101">
@@ -9329,10 +9329,10 @@
         <v>44</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102">
@@ -9340,10 +9340,10 @@
         <v>44</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103">
@@ -9351,10 +9351,10 @@
         <v>44</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104">
@@ -9362,10 +9362,10 @@
         <v>44</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105">
@@ -9373,10 +9373,10 @@
         <v>44</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106">
@@ -9384,10 +9384,10 @@
         <v>44</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107">
@@ -9395,10 +9395,10 @@
         <v>44</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108">
@@ -9406,10 +9406,10 @@
         <v>44</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109">
@@ -9417,10 +9417,10 @@
         <v>44</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110">
@@ -9428,10 +9428,10 @@
         <v>44</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111">
@@ -9439,10 +9439,10 @@
         <v>44</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112">
@@ -9450,10 +9450,10 @@
         <v>44</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113">
@@ -9461,10 +9461,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114">
@@ -9472,10 +9472,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115">
@@ -9483,10 +9483,10 @@
         <v>44</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116">
@@ -9494,10 +9494,10 @@
         <v>44</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117">
@@ -9505,10 +9505,10 @@
         <v>44</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118">
@@ -9516,10 +9516,10 @@
         <v>44</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119">
@@ -9527,10 +9527,10 @@
         <v>44</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120">
@@ -9538,10 +9538,10 @@
         <v>44</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121">
@@ -9549,10 +9549,10 @@
         <v>44</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122">
@@ -9560,10 +9560,10 @@
         <v>44</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123">
@@ -9571,10 +9571,10 @@
         <v>44</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124">
@@ -9582,10 +9582,10 @@
         <v>44</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125">
@@ -9593,10 +9593,10 @@
         <v>44</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126">
@@ -9604,10 +9604,10 @@
         <v>44</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127">
@@ -9615,10 +9615,10 @@
         <v>44</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128">
@@ -9626,10 +9626,10 @@
         <v>44</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129">
@@ -9637,10 +9637,10 @@
         <v>44</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130">
@@ -9648,10 +9648,10 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131">
@@ -9659,10 +9659,10 @@
         <v>44</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132">
@@ -9670,10 +9670,10 @@
         <v>44</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133">
@@ -9681,10 +9681,10 @@
         <v>44</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134">
@@ -9692,10 +9692,10 @@
         <v>44</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135">
@@ -9703,10 +9703,10 @@
         <v>44</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136">
@@ -9714,10 +9714,10 @@
         <v>44</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137">
@@ -9725,10 +9725,10 @@
         <v>44</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138">
@@ -9736,10 +9736,10 @@
         <v>44</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139">
@@ -9747,10 +9747,10 @@
         <v>44</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140">
@@ -9758,10 +9758,10 @@
         <v>44</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141">
@@ -9769,10 +9769,10 @@
         <v>44</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142">
@@ -9780,10 +9780,10 @@
         <v>44</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143">
@@ -9791,10 +9791,10 @@
         <v>44</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144">
@@ -9802,10 +9802,10 @@
         <v>44</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145">
@@ -9813,10 +9813,10 @@
         <v>44</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146">
@@ -9824,10 +9824,10 @@
         <v>44</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147">
@@ -9835,10 +9835,10 @@
         <v>44</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148">
@@ -9846,10 +9846,10 @@
         <v>44</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149">
@@ -9857,10 +9857,10 @@
         <v>44</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150">
@@ -9868,10 +9868,10 @@
         <v>44</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151">
@@ -9879,10 +9879,10 @@
         <v>44</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152">
@@ -9890,10 +9890,10 @@
         <v>44</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153">
@@ -9901,10 +9901,10 @@
         <v>44</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154">
@@ -9912,10 +9912,10 @@
         <v>44</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155">
@@ -9923,10 +9923,10 @@
         <v>44</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156">
@@ -9934,10 +9934,10 @@
         <v>44</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157">
@@ -9945,10 +9945,10 @@
         <v>44</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158">
@@ -9956,10 +9956,10 @@
         <v>44</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159">
@@ -9967,10 +9967,10 @@
         <v>44</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160">
@@ -9978,10 +9978,10 @@
         <v>44</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161">
@@ -9989,10 +9989,10 @@
         <v>44</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162">
@@ -10000,10 +10000,10 @@
         <v>44</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163">
@@ -10011,10 +10011,10 @@
         <v>44</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164">
@@ -10022,10 +10022,10 @@
         <v>44</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165">
@@ -10033,10 +10033,10 @@
         <v>44</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166">
@@ -10044,10 +10044,10 @@
         <v>44</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167">
@@ -10055,10 +10055,10 @@
         <v>44</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168">
@@ -10066,10 +10066,10 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169">
@@ -10077,10 +10077,10 @@
         <v>44</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170">
@@ -10088,10 +10088,10 @@
         <v>44</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171">
@@ -10099,10 +10099,10 @@
         <v>44</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172">
@@ -10110,10 +10110,10 @@
         <v>44</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173">
@@ -10121,10 +10121,10 @@
         <v>44</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174">
@@ -10132,10 +10132,10 @@
         <v>44</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175">
@@ -10143,10 +10143,10 @@
         <v>44</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176">
@@ -10154,10 +10154,10 @@
         <v>44</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177">
@@ -10165,10 +10165,10 @@
         <v>44</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178">
@@ -10176,10 +10176,10 @@
         <v>44</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179">
@@ -10187,10 +10187,10 @@
         <v>44</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180">
@@ -10198,10 +10198,10 @@
         <v>44</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181">
@@ -10209,10 +10209,10 @@
         <v>44</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182">
@@ -10220,10 +10220,10 @@
         <v>44</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183">
@@ -10231,10 +10231,10 @@
         <v>44</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="184">
@@ -10242,10 +10242,10 @@
         <v>44</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185">
@@ -10253,10 +10253,10 @@
         <v>44</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186">
@@ -10264,10 +10264,10 @@
         <v>44</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187">
@@ -10275,10 +10275,10 @@
         <v>44</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188">
@@ -10286,10 +10286,10 @@
         <v>44</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189">
@@ -10297,10 +10297,10 @@
         <v>44</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190">
@@ -10308,10 +10308,10 @@
         <v>44</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191">
@@ -10319,10 +10319,10 @@
         <v>44</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192">
@@ -10330,10 +10330,10 @@
         <v>44</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193">
@@ -10341,10 +10341,10 @@
         <v>44</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194">
@@ -10352,10 +10352,10 @@
         <v>44</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195">
@@ -10363,10 +10363,10 @@
         <v>44</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196">
@@ -10374,10 +10374,10 @@
         <v>44</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197">
@@ -10385,10 +10385,10 @@
         <v>44</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198">
@@ -10396,10 +10396,10 @@
         <v>44</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199">
@@ -10407,10 +10407,10 @@
         <v>44</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200">
@@ -10418,10 +10418,10 @@
         <v>44</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201">
@@ -10429,10 +10429,10 @@
         <v>44</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202">
@@ -10440,10 +10440,10 @@
         <v>44</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203">
@@ -10451,10 +10451,10 @@
         <v>44</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204">
@@ -10462,10 +10462,10 @@
         <v>44</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205">
@@ -10473,10 +10473,10 @@
         <v>44</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206">
@@ -10484,10 +10484,10 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207">
@@ -10495,10 +10495,10 @@
         <v>44</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208">
@@ -10506,10 +10506,10 @@
         <v>44</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209">
@@ -10517,21 +10517,21 @@
         <v>44</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="211">
@@ -10539,10 +10539,10 @@
         <v>244</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212">
@@ -10550,10 +10550,10 @@
         <v>244</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213">
@@ -10561,10 +10561,10 @@
         <v>244</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214">
@@ -10572,10 +10572,10 @@
         <v>244</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215">
@@ -10583,10 +10583,10 @@
         <v>244</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216">
@@ -10594,10 +10594,10 @@
         <v>244</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217">
@@ -10605,10 +10605,10 @@
         <v>244</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218">
@@ -10616,10 +10616,10 @@
         <v>244</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219">
@@ -10627,32 +10627,32 @@
         <v>244</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="222">
@@ -10660,7 +10660,7 @@
         <v>256</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>303</v>
@@ -10671,7 +10671,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>303</v>
@@ -10682,7 +10682,7 @@
         <v>256</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>303</v>
@@ -10693,7 +10693,7 @@
         <v>256</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>303</v>
@@ -10704,7 +10704,7 @@
         <v>256</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>303</v>
@@ -10715,7 +10715,7 @@
         <v>256</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>303</v>
@@ -10726,7 +10726,7 @@
         <v>256</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>303</v>
@@ -10737,7 +10737,7 @@
         <v>256</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>303</v>
@@ -10748,7 +10748,7 @@
         <v>256</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>303</v>
@@ -10759,7 +10759,7 @@
         <v>256</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>303</v>
@@ -10770,7 +10770,7 @@
         <v>256</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>303</v>
@@ -10781,7 +10781,7 @@
         <v>256</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>303</v>
@@ -10789,24 +10789,24 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236">
@@ -10814,7 +10814,7 @@
         <v>46</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>325</v>
@@ -10825,7 +10825,7 @@
         <v>46</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>325</v>
@@ -10836,7 +10836,7 @@
         <v>46</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>325</v>
@@ -10847,7 +10847,7 @@
         <v>46</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>325</v>
@@ -10858,7 +10858,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>325</v>
@@ -10869,7 +10869,7 @@
         <v>46</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>325</v>
@@ -10880,7 +10880,7 @@
         <v>46</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>325</v>
@@ -10891,7 +10891,7 @@
         <v>46</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>325</v>
@@ -10902,7 +10902,7 @@
         <v>46</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>325</v>
@@ -10913,7 +10913,7 @@
         <v>46</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>325</v>
@@ -10924,7 +10924,7 @@
         <v>46</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>325</v>
@@ -10935,7 +10935,7 @@
         <v>46</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>325</v>
@@ -10946,7 +10946,7 @@
         <v>46</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>325</v>
@@ -10957,7 +10957,7 @@
         <v>46</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>325</v>
@@ -10968,7 +10968,7 @@
         <v>46</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>325</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>325</v>
@@ -10990,7 +10990,7 @@
         <v>46</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>325</v>
@@ -11001,7 +11001,7 @@
         <v>46</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>325</v>
@@ -11012,7 +11012,7 @@
         <v>46</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>325</v>
@@ -11023,7 +11023,7 @@
         <v>46</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>325</v>
@@ -11034,7 +11034,7 @@
         <v>46</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>325</v>
@@ -11045,7 +11045,7 @@
         <v>46</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>325</v>
@@ -11056,7 +11056,7 @@
         <v>46</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>325</v>
@@ -11067,7 +11067,7 @@
         <v>46</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>325</v>
@@ -11078,7 +11078,7 @@
         <v>46</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>325</v>
@@ -11089,7 +11089,7 @@
         <v>46</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>325</v>
@@ -11100,7 +11100,7 @@
         <v>46</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>325</v>
@@ -11111,7 +11111,7 @@
         <v>46</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>325</v>
@@ -11122,7 +11122,7 @@
         <v>46</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>325</v>
@@ -11133,7 +11133,7 @@
         <v>46</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>325</v>
@@ -11144,7 +11144,7 @@
         <v>46</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>325</v>
@@ -11155,7 +11155,7 @@
         <v>46</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>325</v>
@@ -11166,7 +11166,7 @@
         <v>46</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>325</v>
@@ -11177,7 +11177,7 @@
         <v>46</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>325</v>
@@ -11188,7 +11188,7 @@
         <v>46</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>325</v>
@@ -11199,7 +11199,7 @@
         <v>46</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>325</v>
@@ -11210,7 +11210,7 @@
         <v>46</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>325</v>
@@ -11221,7 +11221,7 @@
         <v>46</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>325</v>
@@ -11232,7 +11232,7 @@
         <v>46</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>325</v>
@@ -11243,7 +11243,7 @@
         <v>46</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>325</v>
@@ -11254,7 +11254,7 @@
         <v>46</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>325</v>
@@ -11265,7 +11265,7 @@
         <v>46</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>325</v>
@@ -11276,7 +11276,7 @@
         <v>46</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>325</v>
@@ -11287,7 +11287,7 @@
         <v>46</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>325</v>
@@ -11298,7 +11298,7 @@
         <v>46</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>325</v>
@@ -11309,7 +11309,7 @@
         <v>46</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>325</v>
@@ -11320,7 +11320,7 @@
         <v>46</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>325</v>
@@ -11331,7 +11331,7 @@
         <v>46</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>325</v>
@@ -11342,7 +11342,7 @@
         <v>46</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>325</v>
@@ -11353,7 +11353,7 @@
         <v>46</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>325</v>
@@ -11364,7 +11364,7 @@
         <v>46</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>325</v>
@@ -11375,7 +11375,7 @@
         <v>46</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>325</v>
@@ -11386,7 +11386,7 @@
         <v>46</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>325</v>
@@ -11397,7 +11397,7 @@
         <v>46</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>325</v>
@@ -11408,7 +11408,7 @@
         <v>46</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>325</v>
@@ -11419,7 +11419,7 @@
         <v>46</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>325</v>
@@ -11430,7 +11430,7 @@
         <v>46</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>325</v>
@@ -11441,7 +11441,7 @@
         <v>46</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>325</v>
@@ -11452,7 +11452,7 @@
         <v>46</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>325</v>
@@ -11463,7 +11463,7 @@
         <v>46</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>325</v>
@@ -11474,7 +11474,7 @@
         <v>46</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>325</v>
@@ -11485,7 +11485,7 @@
         <v>46</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>325</v>
@@ -11496,7 +11496,7 @@
         <v>46</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>325</v>
@@ -11507,7 +11507,7 @@
         <v>46</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>325</v>
@@ -11518,7 +11518,7 @@
         <v>46</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>325</v>
@@ -11529,7 +11529,7 @@
         <v>46</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>325</v>
@@ -11540,7 +11540,7 @@
         <v>46</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>325</v>
@@ -11551,7 +11551,7 @@
         <v>46</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>325</v>
@@ -11562,7 +11562,7 @@
         <v>46</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>325</v>
@@ -11573,7 +11573,7 @@
         <v>46</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>325</v>
@@ -11584,7 +11584,7 @@
         <v>46</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>325</v>
@@ -11595,7 +11595,7 @@
         <v>46</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>325</v>
@@ -11606,7 +11606,7 @@
         <v>46</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>325</v>
@@ -11617,7 +11617,7 @@
         <v>46</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>325</v>
@@ -11628,7 +11628,7 @@
         <v>46</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>325</v>
@@ -11639,7 +11639,7 @@
         <v>46</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>325</v>
@@ -11650,7 +11650,7 @@
         <v>46</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>325</v>
@@ -11661,7 +11661,7 @@
         <v>46</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>325</v>
@@ -11672,7 +11672,7 @@
         <v>46</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>325</v>
@@ -11683,7 +11683,7 @@
         <v>46</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>325</v>
@@ -11694,7 +11694,7 @@
         <v>46</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>325</v>
@@ -11705,7 +11705,7 @@
         <v>46</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>325</v>
@@ -11716,7 +11716,7 @@
         <v>46</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>325</v>
@@ -11727,7 +11727,7 @@
         <v>46</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>325</v>
@@ -11738,7 +11738,7 @@
         <v>46</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>325</v>
@@ -11749,7 +11749,7 @@
         <v>46</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>325</v>
@@ -11760,7 +11760,7 @@
         <v>46</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>325</v>
@@ -11771,7 +11771,7 @@
         <v>46</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>325</v>
@@ -11782,7 +11782,7 @@
         <v>46</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>325</v>
@@ -11793,7 +11793,7 @@
         <v>46</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>325</v>
@@ -11804,7 +11804,7 @@
         <v>46</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>325</v>
@@ -11815,7 +11815,7 @@
         <v>46</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>325</v>
@@ -11826,7 +11826,7 @@
         <v>46</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>325</v>
@@ -11837,7 +11837,7 @@
         <v>46</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>325</v>
@@ -11848,7 +11848,7 @@
         <v>46</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>325</v>
@@ -11859,7 +11859,7 @@
         <v>46</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>325</v>
@@ -11870,7 +11870,7 @@
         <v>46</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>325</v>
@@ -11881,7 +11881,7 @@
         <v>46</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>325</v>
@@ -11892,7 +11892,7 @@
         <v>46</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>325</v>
@@ -11903,7 +11903,7 @@
         <v>46</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>325</v>
@@ -11914,7 +11914,7 @@
         <v>46</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>325</v>
@@ -11925,7 +11925,7 @@
         <v>46</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>325</v>
@@ -11936,7 +11936,7 @@
         <v>46</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>325</v>
@@ -11947,7 +11947,7 @@
         <v>46</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>325</v>
@@ -11958,7 +11958,7 @@
         <v>46</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>325</v>
@@ -11969,7 +11969,7 @@
         <v>46</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>325</v>
@@ -11980,7 +11980,7 @@
         <v>46</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>325</v>
@@ -11991,7 +11991,7 @@
         <v>46</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>325</v>
@@ -12002,7 +12002,7 @@
         <v>46</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>325</v>
@@ -12013,7 +12013,7 @@
         <v>46</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>325</v>
@@ -12024,7 +12024,7 @@
         <v>46</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>325</v>
@@ -12035,7 +12035,7 @@
         <v>46</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>325</v>
@@ -12046,7 +12046,7 @@
         <v>46</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>325</v>
@@ -12057,7 +12057,7 @@
         <v>46</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>325</v>
@@ -12068,7 +12068,7 @@
         <v>46</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>325</v>
@@ -12079,7 +12079,7 @@
         <v>46</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>325</v>
@@ -12090,7 +12090,7 @@
         <v>46</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>325</v>
@@ -12101,7 +12101,7 @@
         <v>46</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C353" t="s" s="0">
         <v>325</v>
@@ -12112,7 +12112,7 @@
         <v>46</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>325</v>
@@ -12123,7 +12123,7 @@
         <v>46</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>325</v>
@@ -12134,7 +12134,7 @@
         <v>46</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C356" t="s" s="0">
         <v>325</v>
@@ -12145,7 +12145,7 @@
         <v>46</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="C357" t="s" s="0">
         <v>325</v>
@@ -12156,7 +12156,7 @@
         <v>46</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C358" t="s" s="0">
         <v>325</v>
@@ -12167,7 +12167,7 @@
         <v>46</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C359" t="s" s="0">
         <v>325</v>
@@ -12178,7 +12178,7 @@
         <v>46</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>325</v>
@@ -12189,7 +12189,7 @@
         <v>46</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>325</v>
@@ -12200,7 +12200,7 @@
         <v>46</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>325</v>
@@ -12211,7 +12211,7 @@
         <v>46</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>325</v>
@@ -12222,7 +12222,7 @@
         <v>46</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>325</v>
@@ -12233,7 +12233,7 @@
         <v>46</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C365" t="s" s="0">
         <v>325</v>
@@ -12244,7 +12244,7 @@
         <v>46</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="C366" t="s" s="0">
         <v>325</v>
@@ -12255,7 +12255,7 @@
         <v>46</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C367" t="s" s="0">
         <v>325</v>
@@ -12266,7 +12266,7 @@
         <v>46</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>325</v>
@@ -12277,7 +12277,7 @@
         <v>46</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>325</v>
@@ -12288,7 +12288,7 @@
         <v>46</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>325</v>
@@ -12299,7 +12299,7 @@
         <v>46</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="C371" t="s" s="0">
         <v>325</v>
@@ -12310,7 +12310,7 @@
         <v>46</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>325</v>
@@ -12321,7 +12321,7 @@
         <v>46</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>325</v>
@@ -12332,7 +12332,7 @@
         <v>46</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C374" t="s" s="0">
         <v>325</v>
@@ -12343,7 +12343,7 @@
         <v>46</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>325</v>
@@ -12354,7 +12354,7 @@
         <v>46</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>325</v>
@@ -12365,7 +12365,7 @@
         <v>46</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>325</v>
@@ -12376,7 +12376,7 @@
         <v>46</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>325</v>
@@ -12387,7 +12387,7 @@
         <v>46</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>325</v>
@@ -12398,7 +12398,7 @@
         <v>46</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>325</v>
@@ -12409,7 +12409,7 @@
         <v>46</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>325</v>
@@ -12420,7 +12420,7 @@
         <v>46</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>325</v>
@@ -12431,7 +12431,7 @@
         <v>46</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>325</v>
@@ -12442,7 +12442,7 @@
         <v>46</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>325</v>
@@ -12453,7 +12453,7 @@
         <v>46</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>325</v>
@@ -12464,7 +12464,7 @@
         <v>46</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>325</v>
@@ -12475,7 +12475,7 @@
         <v>46</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>325</v>
@@ -12486,7 +12486,7 @@
         <v>46</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>325</v>
@@ -12497,7 +12497,7 @@
         <v>46</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>325</v>
@@ -12508,7 +12508,7 @@
         <v>46</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>325</v>
@@ -12519,7 +12519,7 @@
         <v>46</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>325</v>
@@ -12530,7 +12530,7 @@
         <v>46</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>325</v>
@@ -12541,7 +12541,7 @@
         <v>46</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>325</v>
@@ -12552,7 +12552,7 @@
         <v>46</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>325</v>
@@ -12563,7 +12563,7 @@
         <v>46</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>325</v>
@@ -12574,7 +12574,7 @@
         <v>46</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>325</v>
@@ -12585,7 +12585,7 @@
         <v>46</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>325</v>
@@ -12596,7 +12596,7 @@
         <v>46</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>325</v>
@@ -12607,7 +12607,7 @@
         <v>46</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>325</v>
@@ -12618,7 +12618,7 @@
         <v>46</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>325</v>
@@ -12629,7 +12629,7 @@
         <v>46</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>325</v>
@@ -12640,7 +12640,7 @@
         <v>46</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>325</v>
@@ -12651,7 +12651,7 @@
         <v>46</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>325</v>
@@ -12662,7 +12662,7 @@
         <v>46</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>325</v>
@@ -12673,7 +12673,7 @@
         <v>46</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>325</v>
@@ -12684,7 +12684,7 @@
         <v>46</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>325</v>
@@ -12695,7 +12695,7 @@
         <v>46</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C407" t="s" s="0">
         <v>325</v>
@@ -12706,7 +12706,7 @@
         <v>46</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="C408" t="s" s="0">
         <v>325</v>
@@ -12717,7 +12717,7 @@
         <v>46</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C409" t="s" s="0">
         <v>325</v>
@@ -12728,7 +12728,7 @@
         <v>46</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C410" t="s" s="0">
         <v>325</v>
@@ -12739,7 +12739,7 @@
         <v>46</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>325</v>
@@ -12750,7 +12750,7 @@
         <v>46</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C412" t="s" s="0">
         <v>325</v>
@@ -12761,7 +12761,7 @@
         <v>46</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C413" t="s" s="0">
         <v>325</v>
@@ -12772,7 +12772,7 @@
         <v>46</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="C414" t="s" s="0">
         <v>325</v>
@@ -12783,7 +12783,7 @@
         <v>46</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C415" t="s" s="0">
         <v>325</v>
@@ -12794,7 +12794,7 @@
         <v>46</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>325</v>
@@ -12805,7 +12805,7 @@
         <v>46</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="C417" t="s" s="0">
         <v>325</v>
@@ -12816,7 +12816,7 @@
         <v>46</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C418" t="s" s="0">
         <v>325</v>
@@ -12827,7 +12827,7 @@
         <v>46</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C419" t="s" s="0">
         <v>325</v>
@@ -12838,7 +12838,7 @@
         <v>46</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C420" t="s" s="0">
         <v>325</v>
@@ -12849,7 +12849,7 @@
         <v>46</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>325</v>
@@ -12860,7 +12860,7 @@
         <v>46</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C422" t="s" s="0">
         <v>325</v>
@@ -12871,7 +12871,7 @@
         <v>46</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="C423" t="s" s="0">
         <v>325</v>
@@ -12882,7 +12882,7 @@
         <v>46</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C424" t="s" s="0">
         <v>325</v>
@@ -12893,7 +12893,7 @@
         <v>46</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C425" t="s" s="0">
         <v>325</v>
@@ -12904,7 +12904,7 @@
         <v>46</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C426" t="s" s="0">
         <v>325</v>
@@ -12912,12 +12912,34 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="B427" t="s" s="0">
+      <c r="B429" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="C427" t="s" s="0">
+      <c r="C429" t="s" s="0">
         <v>316</v>
       </c>
     </row>
@@ -12986,7 +13008,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -13000,7 +13022,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -13042,7 +13064,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -13056,7 +13078,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -13084,7 +13106,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -13098,7 +13120,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -13112,7 +13134,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -13154,7 +13176,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -13182,7 +13204,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>162</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
